--- a/SchedulingData/static6/pso/scheduling1_11.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_11.xlsx
@@ -462,406 +462,406 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.32</v>
+        <v>59.04</v>
       </c>
       <c r="E2" t="n">
-        <v>27.228</v>
+        <v>25.776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>72.09999999999999</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>24.96</v>
+        <v>27.096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.04000000000001</v>
+        <v>58.6</v>
       </c>
       <c r="E4" t="n">
-        <v>25.776</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.32</v>
+        <v>58.6</v>
       </c>
       <c r="D5" t="n">
-        <v>122.24</v>
+        <v>112.9</v>
       </c>
       <c r="E5" t="n">
-        <v>22.076</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>117.32</v>
+        <v>64.34</v>
       </c>
       <c r="E6" t="n">
-        <v>23.048</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.09999999999999</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>109.32</v>
+        <v>138.9</v>
       </c>
       <c r="E7" t="n">
-        <v>22.368</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>72.66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>24.904</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>109.32</v>
+        <v>59.04</v>
       </c>
       <c r="D9" t="n">
-        <v>183.34</v>
+        <v>126.76</v>
       </c>
       <c r="E9" t="n">
-        <v>18.096</v>
+        <v>20.624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122.24</v>
+        <v>112.9</v>
       </c>
       <c r="D10" t="n">
-        <v>174.84</v>
+        <v>176.82</v>
       </c>
       <c r="E10" t="n">
-        <v>18.436</v>
+        <v>18.268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>174.84</v>
+        <v>64.34</v>
       </c>
       <c r="D11" t="n">
-        <v>245.48</v>
+        <v>128.54</v>
       </c>
       <c r="E11" t="n">
-        <v>14.012</v>
+        <v>20.936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>245.48</v>
+        <v>128.54</v>
       </c>
       <c r="D12" t="n">
-        <v>310.12</v>
+        <v>200.24</v>
       </c>
       <c r="E12" t="n">
-        <v>10.148</v>
+        <v>16.856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D13" t="n">
-        <v>76.40000000000001</v>
+        <v>119.84</v>
       </c>
       <c r="E13" t="n">
-        <v>24.54</v>
+        <v>22.836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>84.40000000000001</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>24.72</v>
+        <v>25.164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>84.40000000000001</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>163.5</v>
+        <v>162.6</v>
       </c>
       <c r="E15" t="n">
-        <v>19.92</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>117.32</v>
+        <v>138.9</v>
       </c>
       <c r="D16" t="n">
-        <v>175.42</v>
+        <v>185.9</v>
       </c>
       <c r="E16" t="n">
-        <v>19.368</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>310.12</v>
+        <v>119.84</v>
       </c>
       <c r="D17" t="n">
-        <v>393.18</v>
+        <v>177.38</v>
       </c>
       <c r="E17" t="n">
-        <v>6.452</v>
+        <v>19.712</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>175.42</v>
+        <v>200.24</v>
       </c>
       <c r="D18" t="n">
-        <v>257.5</v>
+        <v>277.3</v>
       </c>
       <c r="E18" t="n">
-        <v>15.78</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>257.5</v>
+        <v>177.38</v>
       </c>
       <c r="D19" t="n">
-        <v>341.5</v>
+        <v>257.72</v>
       </c>
       <c r="E19" t="n">
-        <v>11.98</v>
+        <v>15.288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>72.66</v>
+        <v>176.82</v>
       </c>
       <c r="D20" t="n">
-        <v>130.06</v>
+        <v>250.92</v>
       </c>
       <c r="E20" t="n">
-        <v>21.784</v>
+        <v>12.988</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>163.5</v>
+        <v>162.6</v>
       </c>
       <c r="D21" t="n">
-        <v>249.34</v>
+        <v>215.7</v>
       </c>
       <c r="E21" t="n">
-        <v>15.916</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>249.34</v>
+        <v>257.72</v>
       </c>
       <c r="D22" t="n">
-        <v>311.38</v>
+        <v>319.84</v>
       </c>
       <c r="E22" t="n">
-        <v>12.332</v>
+        <v>12.696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,70 +869,70 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>76.40000000000001</v>
+        <v>277.3</v>
       </c>
       <c r="D23" t="n">
-        <v>110.9</v>
+        <v>316.7</v>
       </c>
       <c r="E23" t="n">
-        <v>22.22</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>183.34</v>
+        <v>126.76</v>
       </c>
       <c r="D24" t="n">
-        <v>250.7</v>
+        <v>179.06</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>17.504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>341.5</v>
+        <v>179.06</v>
       </c>
       <c r="D25" t="n">
-        <v>399.42</v>
+        <v>237.38</v>
       </c>
       <c r="E25" t="n">
-        <v>8.788</v>
+        <v>13.292</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>130.06</v>
+        <v>185.9</v>
       </c>
       <c r="D26" t="n">
-        <v>188.38</v>
+        <v>229.68</v>
       </c>
       <c r="E26" t="n">
-        <v>17.572</v>
+        <v>16.592</v>
       </c>
     </row>
     <row r="27">
@@ -941,302 +941,302 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>188.38</v>
+        <v>316.7</v>
       </c>
       <c r="D27" t="n">
-        <v>245.18</v>
+        <v>362.84</v>
       </c>
       <c r="E27" t="n">
-        <v>14.012</v>
+        <v>5.956</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>393.18</v>
+        <v>237.38</v>
       </c>
       <c r="D28" t="n">
-        <v>469.68</v>
+        <v>318.28</v>
       </c>
       <c r="E28" t="n">
-        <v>1.892</v>
+        <v>7.832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>469.68</v>
+        <v>250.92</v>
       </c>
       <c r="D29" t="n">
-        <v>542.9</v>
+        <v>294.4</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>245.18</v>
+        <v>215.7</v>
       </c>
       <c r="D30" t="n">
-        <v>316.48</v>
+        <v>284.48</v>
       </c>
       <c r="E30" t="n">
-        <v>10.472</v>
+        <v>14.532</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>110.9</v>
+        <v>229.68</v>
       </c>
       <c r="D31" t="n">
-        <v>183.24</v>
+        <v>281.22</v>
       </c>
       <c r="E31" t="n">
-        <v>18.076</v>
+        <v>13.568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>183.24</v>
+        <v>284.48</v>
       </c>
       <c r="D32" t="n">
-        <v>240.58</v>
+        <v>326.28</v>
       </c>
       <c r="E32" t="n">
-        <v>14.952</v>
+        <v>10.992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>316.48</v>
+        <v>318.28</v>
       </c>
       <c r="D33" t="n">
-        <v>370.5</v>
+        <v>382.64</v>
       </c>
       <c r="E33" t="n">
-        <v>7.7</v>
+        <v>4.036</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>240.58</v>
+        <v>281.22</v>
       </c>
       <c r="D34" t="n">
-        <v>312.48</v>
+        <v>364.74</v>
       </c>
       <c r="E34" t="n">
-        <v>10.872</v>
+        <v>10.796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>312.48</v>
+        <v>364.74</v>
       </c>
       <c r="D35" t="n">
-        <v>371.98</v>
+        <v>413.56</v>
       </c>
       <c r="E35" t="n">
-        <v>8.552</v>
+        <v>8.023999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>370.5</v>
+        <v>294.4</v>
       </c>
       <c r="D36" t="n">
-        <v>418.94</v>
+        <v>366.46</v>
       </c>
       <c r="E36" t="n">
-        <v>4.476</v>
+        <v>5.164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>250.7</v>
+        <v>382.64</v>
       </c>
       <c r="D37" t="n">
-        <v>309.04</v>
+        <v>461.37</v>
       </c>
       <c r="E37" t="n">
-        <v>9.776</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>542.9</v>
+        <v>461.37</v>
       </c>
       <c r="D38" t="n">
-        <v>587.98</v>
+        <v>523.97</v>
       </c>
       <c r="E38" t="n">
-        <v>27.192</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>311.38</v>
+        <v>326.28</v>
       </c>
       <c r="D39" t="n">
-        <v>392.36</v>
+        <v>399.62</v>
       </c>
       <c r="E39" t="n">
-        <v>9.824</v>
+        <v>7.768</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>399.42</v>
+        <v>319.84</v>
       </c>
       <c r="D40" t="n">
-        <v>458.26</v>
+        <v>372.44</v>
       </c>
       <c r="E40" t="n">
-        <v>4.524</v>
+        <v>9.055999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>309.04</v>
+        <v>399.62</v>
       </c>
       <c r="D41" t="n">
-        <v>355.28</v>
+        <v>451.7</v>
       </c>
       <c r="E41" t="n">
-        <v>6.292</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>355.28</v>
+        <v>523.97</v>
       </c>
       <c r="D42" t="n">
-        <v>423.56</v>
+        <v>587.87</v>
       </c>
       <c r="E42" t="n">
-        <v>3.044</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="43">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>458.26</v>
+        <v>451.7</v>
       </c>
       <c r="D43" t="n">
-        <v>541.46</v>
+        <v>507.68</v>
       </c>
       <c r="E43" t="n">
-        <v>0.804</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="44">
@@ -1268,10 +1268,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>541.46</v>
+        <v>507.68</v>
       </c>
       <c r="D44" t="n">
-        <v>646.15</v>
+        <v>576.34</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -1279,21 +1279,21 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>392.36</v>
+        <v>413.56</v>
       </c>
       <c r="D45" t="n">
-        <v>440.36</v>
+        <v>472.26</v>
       </c>
       <c r="E45" t="n">
-        <v>6.164</v>
+        <v>5.264</v>
       </c>
     </row>
     <row r="46">
@@ -1302,150 +1302,150 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>371.98</v>
+        <v>366.46</v>
       </c>
       <c r="D46" t="n">
-        <v>441.44</v>
+        <v>433.26</v>
       </c>
       <c r="E46" t="n">
-        <v>3.716</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>440.36</v>
+        <v>433.26</v>
       </c>
       <c r="D47" t="n">
-        <v>494.76</v>
+        <v>514.71</v>
       </c>
       <c r="E47" t="n">
-        <v>2.864</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>418.94</v>
+        <v>514.71</v>
       </c>
       <c r="D48" t="n">
-        <v>484.18</v>
+        <v>597.05</v>
       </c>
       <c r="E48" t="n">
-        <v>1.572</v>
+        <v>26.416</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>484.18</v>
+        <v>372.44</v>
       </c>
       <c r="D49" t="n">
-        <v>572.54</v>
+        <v>428.78</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>5.052</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>572.54</v>
+        <v>472.26</v>
       </c>
       <c r="D50" t="n">
-        <v>649.08</v>
+        <v>515.8</v>
       </c>
       <c r="E50" t="n">
-        <v>26.976</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>494.76</v>
+        <v>362.84</v>
       </c>
       <c r="D51" t="n">
-        <v>548.66</v>
+        <v>450.74</v>
       </c>
       <c r="E51" t="n">
-        <v>0.104</v>
+        <v>2.236</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>548.66</v>
+        <v>428.78</v>
       </c>
       <c r="D52" t="n">
-        <v>620.35</v>
+        <v>481.9</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>587.98</v>
+        <v>481.9</v>
       </c>
       <c r="D53" t="n">
-        <v>667.14</v>
+        <v>574.6799999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>23.396</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
